--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108043.6452960356</v>
+        <v>102325.9799385317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25776326.86519505</v>
+        <v>25388926.4067728</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7665438.088900764</v>
+        <v>7656874.863490284</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5257519.97290224</v>
+        <v>5276584.289128085</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>403.1572050940909</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.350305051013968</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>84.85899356878446</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>17.69539570346183</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>80.4490923554084</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>97.39852001520045</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>150.8611101033267</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>192.0340880818577</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.4495715378419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.2204674720861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>16.89140441776468</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>13.05175164612263</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>407.2606697395771</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>326.3929302907491</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>51.98952215911272</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>243.400138899798</v>
       </c>
       <c r="U16" t="n">
-        <v>191.8313879156259</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.189222384772028</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H17" t="n">
-        <v>278.862318235759</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U17" t="n">
-        <v>193.0185025731735</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1937,10 +1937,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>84.14585677329006</v>
+        <v>84.10307333667062</v>
       </c>
       <c r="H18" t="n">
-        <v>37.59631626221395</v>
+        <v>37.18311833486297</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>55.66258037960635</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T18" t="n">
-        <v>127.3234970745041</v>
+        <v>127.1510498014634</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5478274469269</v>
+        <v>174.5450127471493</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6122708484764</v>
+        <v>163.5764026524034</v>
       </c>
       <c r="H19" t="n">
-        <v>135.6305765148638</v>
+        <v>135.3116756443242</v>
       </c>
       <c r="I19" t="n">
-        <v>39.37981390241441</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.676279941050877</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S19" t="n">
-        <v>152.0183534903999</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T19" t="n">
-        <v>242.0401706237068</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6310475734646</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>60.70794741002163</v>
       </c>
       <c r="H20" t="n">
         <v>278.0434075022746</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>161.8626264484275</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V23" t="n">
-        <v>127.3797151767858</v>
+        <v>281.2206430789054</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>54.86789680906528</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T24" t="n">
         <v>127.1510498014634</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806556</v>
+        <v>5.063515415807501</v>
       </c>
       <c r="S25" t="n">
         <v>151.3932686552011</v>
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>178.960867383139</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>183.3399733977557</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H27" t="n">
-        <v>37.18311833486298</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>54.86789680906531</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T27" t="n">
         <v>127.1510498014634</v>
@@ -2733,7 +2733,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I28" t="n">
-        <v>76.97845642156408</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.06351541580615</v>
+        <v>5.063515415807501</v>
       </c>
       <c r="S28" t="n">
         <v>151.3932686552011</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>394.6935520528712</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>89.88081710326603</v>
       </c>
     </row>
     <row r="30">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>339.0929387074843</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>131.3723803606283</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H32" t="n">
         <v>278.0434075022746</v>
@@ -3082,7 +3082,7 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U32" t="n">
         <v>256.5660605529466</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9721880033711158</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>154.1135639764738</v>
       </c>
     </row>
     <row r="36">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415807051</v>
+        <v>5.063515415807501</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9721880033714535</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>53.53003719493724</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3681,7 +3681,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I40" t="n">
-        <v>76.97845642156405</v>
+        <v>76.9784564215649</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415807501</v>
+        <v>5.063515415806567</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>214.7623033115333</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9721880033720163</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.063515415807951</v>
+        <v>5.063515415806567</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>385.5118048112504</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>120.6246040374883</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.52738940623971</v>
+        <v>84.10307333667062</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T45" t="n">
-        <v>124.8306395731037</v>
+        <v>127.1510498014634</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5450127471493</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>163.5764026524035</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>135.3116756443242</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.063515415806567</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>464.8993883704147</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>464.8993883704147</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>36.31771410768306</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.6598237215927</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6598237215927</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6598237215927</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6598237215927</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6598237215927</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,7 +4494,7 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
         <v>1181.483761245743</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>592.4712490740719</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>347.0794944074844</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.6598237215927</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.4906125312521</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C5" t="n">
-        <v>323.4906125312521</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D5" t="n">
-        <v>323.4906125312521</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4573,19 +4573,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1679.309293006213</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>1679.309293006213</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="W5" t="n">
-        <v>813.0384456815061</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="X5" t="n">
-        <v>731.7767362315986</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.4906125312521</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>467.9620085990458</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>302.0840158005685</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>132.3260120513058</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.765608785789</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>1523.380649085459</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X7" t="n">
-        <v>1277.988894418872</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>640.5237201158209</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.974446717864</v>
+        <v>656.2017139105714</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>1318.974446717864</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.974446717864</v>
+        <v>656.2017139105714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.974446717864</v>
+        <v>656.2017139105714</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1567.436388123001</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1567.436388123001</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1567.436388123001</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1567.436388123001</v>
       </c>
       <c r="W10" t="n">
-        <v>1549.069749750006</v>
+        <v>1295.409983709293</v>
       </c>
       <c r="X10" t="n">
-        <v>1303.677995083419</v>
+        <v>1050.018229042705</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>822.5985583568136</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1697.183430080417</v>
+        <v>706.2604541458799</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>706.2604541458799</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>706.2604541458799</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>706.2604541458799</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>706.2604541458799</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>304.8734337249277</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>455.3443953003875</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>457.0164948121532</v>
+        <v>1100.250737776315</v>
       </c>
       <c r="M11" t="n">
-        <v>458.8770276980765</v>
+        <v>1102.111270662238</v>
       </c>
       <c r="N11" t="n">
-        <v>460.7676659512211</v>
+        <v>1104.001908915383</v>
       </c>
       <c r="O11" t="n">
-        <v>687.2579778999467</v>
+        <v>1105.787185005639</v>
       </c>
       <c r="P11" t="n">
         <v>1107.31087684485</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.1635279124</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.1635279124</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.546577846226</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.546577846226</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.546577846226</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.183430080417</v>
+        <v>706.2604541458799</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>385.2964793969039</v>
       </c>
       <c r="K12" t="n">
-        <v>386.2119409334556</v>
+        <v>805.3493783418072</v>
       </c>
       <c r="L12" t="n">
-        <v>387.4428919443198</v>
+        <v>806.5803293526715</v>
       </c>
       <c r="M12" t="n">
-        <v>388.8793537137902</v>
+        <v>808.0167911221417</v>
       </c>
       <c r="N12" t="n">
-        <v>390.353834351973</v>
+        <v>809.4912717603245</v>
       </c>
       <c r="O12" t="n">
-        <v>739.3600755231091</v>
+        <v>810.8401334810872</v>
       </c>
       <c r="P12" t="n">
         <v>1159.412974468012</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>227.7127473042609</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C13" t="n">
-        <v>227.7127473042609</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D13" t="n">
-        <v>227.7127473042609</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5208,10 +5208,10 @@
         <v>728.5068685404319</v>
       </c>
       <c r="M13" t="n">
-        <v>729.2519102095845</v>
+        <v>1148.559767485335</v>
       </c>
       <c r="N13" t="n">
-        <v>1149.304809154488</v>
+        <v>1149.287093728845</v>
       </c>
       <c r="O13" t="n">
         <v>1348.703699992174</v>
@@ -5223,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.98365645944</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.826799967382</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.324703919005</v>
+        <v>1270.96807380597</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.324703919005</v>
+        <v>992.5353375730342</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.369195789436</v>
+        <v>992.5353375730342</v>
       </c>
       <c r="W13" t="n">
-        <v>892.3427913757273</v>
+        <v>992.5353375730342</v>
       </c>
       <c r="X13" t="n">
-        <v>646.9510367091398</v>
+        <v>747.1435829064467</v>
       </c>
       <c r="Y13" t="n">
-        <v>419.531366023248</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>873.1855120707613</v>
+        <v>363.6334971781226</v>
       </c>
       <c r="C14" t="n">
-        <v>461.8110981924006</v>
+        <v>363.6334971781226</v>
       </c>
       <c r="D14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>455.3443953003875</v>
       </c>
       <c r="L14" t="n">
-        <v>875.7215660031806</v>
+        <v>457.0164948121532</v>
       </c>
       <c r="M14" t="n">
-        <v>877.5820988891038</v>
+        <v>458.8770276980765</v>
       </c>
       <c r="N14" t="n">
-        <v>879.4727371422487</v>
+        <v>460.7676659512211</v>
       </c>
       <c r="O14" t="n">
-        <v>881.2580132325043</v>
+        <v>687.2579778999465</v>
       </c>
       <c r="P14" t="n">
         <v>1107.31087684485</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.777910919181</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.758008751163</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.536570944643</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="X14" t="n">
-        <v>873.1855120707613</v>
+        <v>771.9196208784692</v>
       </c>
       <c r="Y14" t="n">
-        <v>873.1855120707613</v>
+        <v>363.6334971781226</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>60.20253346866699</v>
       </c>
       <c r="J15" t="n">
-        <v>60.73815443069157</v>
+        <v>385.2964793969039</v>
       </c>
       <c r="K15" t="n">
-        <v>61.65361596724323</v>
+        <v>805.3493783418072</v>
       </c>
       <c r="L15" t="n">
-        <v>62.88456697810749</v>
+        <v>1154.070589890935</v>
       </c>
       <c r="M15" t="n">
-        <v>64.3210287475778</v>
+        <v>1155.507051660405</v>
       </c>
       <c r="N15" t="n">
-        <v>319.3071765782059</v>
+        <v>1156.981532298588</v>
       </c>
       <c r="O15" t="n">
-        <v>739.3600755231091</v>
+        <v>1158.330394019351</v>
       </c>
       <c r="P15" t="n">
         <v>1159.412974468012</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>884.4348562559553</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8731447391802</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>545.995151940703</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2371481914403</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5300941531965</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5436,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.8593851448866</v>
+        <v>34.27969998019673</v>
       </c>
       <c r="K16" t="n">
-        <v>121.4115879246679</v>
+        <v>309.5903573311136</v>
       </c>
       <c r="L16" t="n">
-        <v>540.328099133986</v>
+        <v>728.5068685404319</v>
       </c>
       <c r="M16" t="n">
-        <v>960.3809980788894</v>
+        <v>729.2519102095845</v>
       </c>
       <c r="N16" t="n">
-        <v>1107.96492015328</v>
+        <v>1149.304809154488</v>
       </c>
       <c r="O16" t="n">
-        <v>1528.017819098184</v>
+        <v>1348.703699992174</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.592663056103</v>
+        <v>1696.785437920435</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5469,19 +5469,19 @@
         <v>1451.324703919005</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1451.324703919005</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1164.369195789436</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1164.369195789436</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>1164.369195789436</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>936.9495251035439</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>777.461499069565</v>
+        <v>467.4322793913702</v>
       </c>
       <c r="C17" t="n">
-        <v>777.461499069565</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="D17" t="n">
-        <v>341.5517142440095</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="E17" t="n">
-        <v>341.5517142440095</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F17" t="n">
-        <v>341.5517142440095</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G17" t="n">
-        <v>341.5517142440095</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="H17" t="n">
-        <v>59.87260491495991</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I17" t="n">
-        <v>86.95489625982225</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J17" t="n">
-        <v>582.7308508153351</v>
+        <v>593.2199906656808</v>
       </c>
       <c r="K17" t="n">
-        <v>1323.654336637964</v>
+        <v>1343.033989913169</v>
       </c>
       <c r="L17" t="n">
-        <v>1436.182766904009</v>
+        <v>1468.054835950589</v>
       </c>
       <c r="M17" t="n">
-        <v>1561.392327482262</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N17" t="n">
-        <v>1688.627909653237</v>
+        <v>1748.525337937757</v>
       </c>
       <c r="O17" t="n">
-        <v>2429.551395475866</v>
+        <v>1882.008259045989</v>
       </c>
       <c r="P17" t="n">
-        <v>2532.092332584655</v>
+        <v>2631.822258293478</v>
       </c>
       <c r="Q17" t="n">
-        <v>2779.683544347761</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R17" t="n">
-        <v>2993.630245747996</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="S17" t="n">
-        <v>2993.630245747996</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="T17" t="n">
-        <v>2993.630245747996</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U17" t="n">
-        <v>2798.662061330649</v>
+        <v>2488.632841652454</v>
       </c>
       <c r="V17" t="n">
-        <v>2436.045111264475</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="W17" t="n">
-        <v>2031.189656675509</v>
+        <v>1721.160436997314</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.047193254819</v>
+        <v>1302.017973576625</v>
       </c>
       <c r="Y17" t="n">
-        <v>1203.761069554473</v>
+        <v>893.731849876278</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>561.8954999437036</v>
+        <v>562.1533380346312</v>
       </c>
       <c r="C18" t="n">
-        <v>455.4390387803459</v>
+        <v>455.6968768712736</v>
       </c>
       <c r="D18" t="n">
-        <v>360.3487499268992</v>
+        <v>360.6065880178268</v>
       </c>
       <c r="E18" t="n">
-        <v>266.2283352538529</v>
+        <v>266.4861733447805</v>
       </c>
       <c r="F18" t="n">
-        <v>182.8444968700145</v>
+        <v>183.1023349609421</v>
       </c>
       <c r="G18" t="n">
-        <v>97.84868194749926</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H18" t="n">
-        <v>59.87260491495991</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I18" t="n">
-        <v>99.07222853184166</v>
+        <v>75.18527665341756</v>
       </c>
       <c r="J18" t="n">
-        <v>459.6766055721728</v>
+        <v>411.1499936369445</v>
       </c>
       <c r="K18" t="n">
-        <v>521.2850498975445</v>
+        <v>479.59793887529</v>
       </c>
       <c r="L18" t="n">
-        <v>1161.045377377594</v>
+        <v>571.634648249337</v>
       </c>
       <c r="M18" t="n">
-        <v>1257.715932519966</v>
+        <v>679.0371469977201</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.945069604743</v>
+        <v>789.2822703018636</v>
       </c>
       <c r="O18" t="n">
-        <v>1447.720344051831</v>
+        <v>890.1350199920755</v>
       </c>
       <c r="P18" t="n">
-        <v>1520.57550468518</v>
+        <v>971.0782429539432</v>
       </c>
       <c r="Q18" t="n">
-        <v>1569.277250173559</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R18" t="n">
-        <v>1710.138246696069</v>
+        <v>1709.416341813906</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.9134180298</v>
+        <v>1653.994223824951</v>
       </c>
       <c r="T18" t="n">
-        <v>1525.30382502525</v>
+        <v>1525.558819985089</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.992888210173</v>
+        <v>1349.2507263011</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.875370272172</v>
+        <v>1150.1332083631</v>
       </c>
       <c r="W18" t="n">
-        <v>964.552616005366</v>
+        <v>964.8104540962936</v>
       </c>
       <c r="X18" t="n">
-        <v>809.685180244246</v>
+        <v>809.9430183351736</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.1994010234667</v>
+        <v>683.4572391143944</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.82045920535</v>
+        <v>1125.158958727093</v>
       </c>
       <c r="C19" t="n">
-        <v>914.2587476885748</v>
+        <v>952.597247210318</v>
       </c>
       <c r="D19" t="n">
-        <v>748.3807548900975</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E19" t="n">
-        <v>578.6227511408347</v>
+        <v>616.9612506625779</v>
       </c>
       <c r="F19" t="n">
-        <v>401.9156971025909</v>
+        <v>440.2541966243341</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6507770536248</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H19" t="n">
-        <v>99.65019471537852</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I19" t="n">
-        <v>59.87260491495991</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="J19" t="n">
-        <v>169.0664247568112</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K19" t="n">
-        <v>480.9868493901972</v>
+        <v>488.3413572775054</v>
       </c>
       <c r="L19" t="n">
-        <v>946.7512584193511</v>
+        <v>959.3850626138544</v>
       </c>
       <c r="M19" t="n">
-        <v>1456.374706960466</v>
+        <v>1474.574788898944</v>
       </c>
       <c r="N19" t="n">
-        <v>1947.580884301042</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O19" t="n">
-        <v>2412.460955946845</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P19" t="n">
-        <v>2798.653518908437</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q19" t="n">
-        <v>2993.630245747996</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="R19" t="n">
-        <v>2986.886528635823</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S19" t="n">
-        <v>2833.332636221277</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T19" t="n">
-        <v>2588.84761538925</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U19" t="n">
-        <v>2310.432415820094</v>
+        <v>2348.770915341837</v>
       </c>
       <c r="V19" t="n">
-        <v>2023.476907690525</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.450503276816</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.058748610229</v>
+        <v>1544.397248131972</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.639077924337</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2077.137389086825</v>
+        <v>1710.591118496055</v>
       </c>
       <c r="C20" t="n">
-        <v>1638.994916270248</v>
+        <v>1272.448645679478</v>
       </c>
       <c r="D20" t="n">
-        <v>1203.085131444693</v>
+        <v>836.5388608539224</v>
       </c>
       <c r="E20" t="n">
-        <v>769.310386602988</v>
+        <v>402.7641160122176</v>
       </c>
       <c r="F20" t="n">
-        <v>341.4429570121957</v>
+        <v>402.7641160122176</v>
       </c>
       <c r="G20" t="n">
         <v>341.4429570121957</v>
@@ -5755,22 +5755,22 @@
         <v>593.2199906656808</v>
       </c>
       <c r="K20" t="n">
-        <v>1343.033989913169</v>
+        <v>693.9954319098069</v>
       </c>
       <c r="L20" t="n">
-        <v>1468.054835950589</v>
+        <v>819.0162779472269</v>
       </c>
       <c r="M20" t="n">
-        <v>1607.164616105323</v>
+        <v>958.1260581019602</v>
       </c>
       <c r="N20" t="n">
-        <v>1748.525337937757</v>
+        <v>1099.486779934395</v>
       </c>
       <c r="O20" t="n">
-        <v>1975.265509435733</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P20" t="n">
-        <v>2725.079508683222</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q20" t="n">
         <v>2810.632127459411</v>
@@ -5779,25 +5779,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S20" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="T20" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="U20" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="V20" t="n">
-        <v>2666.934562044892</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="W20" t="n">
-        <v>2503.436959571733</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="X20" t="n">
-        <v>2503.436959571733</v>
+        <v>2545.176812681309</v>
       </c>
       <c r="Y20" t="n">
-        <v>2503.436959571733</v>
+        <v>2136.890688980962</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>60.59103024222131</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341756</v>
       </c>
       <c r="J21" t="n">
-        <v>465.8550024162121</v>
+        <v>439.7913292557545</v>
       </c>
       <c r="K21" t="n">
-        <v>534.3029476545576</v>
+        <v>508.2392744941</v>
       </c>
       <c r="L21" t="n">
-        <v>626.3396570286046</v>
+        <v>600.2759838681471</v>
       </c>
       <c r="M21" t="n">
-        <v>733.7421557769877</v>
+        <v>707.6784826165302</v>
       </c>
       <c r="N21" t="n">
-        <v>843.9872790811311</v>
+        <v>817.9236059206736</v>
       </c>
       <c r="O21" t="n">
-        <v>944.8400287713429</v>
+        <v>918.7763556108854</v>
       </c>
       <c r="P21" t="n">
-        <v>1025.783251733211</v>
+        <v>999.7195785727531</v>
       </c>
       <c r="Q21" t="n">
         <v>1565.925582547988</v>
@@ -5889,22 +5889,22 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C22" t="n">
-        <v>952.5972472103175</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D22" t="n">
-        <v>786.7192544118402</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E22" t="n">
-        <v>616.9612506625774</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F22" t="n">
-        <v>440.2541966243336</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G22" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764513</v>
       </c>
       <c r="H22" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296591</v>
       </c>
       <c r="I22" t="n">
         <v>60.59103024222131</v>
@@ -5916,16 +5916,16 @@
         <v>488.3413572775056</v>
       </c>
       <c r="L22" t="n">
-        <v>959.3850626138546</v>
+        <v>959.3850626138544</v>
       </c>
       <c r="M22" t="n">
-        <v>1474.574788898945</v>
+        <v>1474.574788898944</v>
       </c>
       <c r="N22" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O22" t="n">
-        <v>2441.114070398671</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P22" t="n">
         <v>2831.601347685255</v>
@@ -5946,10 +5946,10 @@
         <v>2348.770915341837</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.815407212267</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W22" t="n">
-        <v>1789.789002798559</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X22" t="n">
         <v>1544.397248131972</v>
@@ -5977,64 +5977,64 @@
         <v>488.4584598330136</v>
       </c>
       <c r="F23" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="G23" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H23" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I23" t="n">
-        <v>90.72522887302335</v>
+        <v>90.72522887302334</v>
       </c>
       <c r="J23" t="n">
-        <v>593.2199906656811</v>
+        <v>593.2199906656809</v>
       </c>
       <c r="K23" t="n">
-        <v>693.9954319098074</v>
+        <v>693.9954319098072</v>
       </c>
       <c r="L23" t="n">
-        <v>819.0162779472275</v>
+        <v>819.0162779472272</v>
       </c>
       <c r="M23" t="n">
-        <v>958.1260581019612</v>
+        <v>958.1260581019608</v>
       </c>
       <c r="N23" t="n">
-        <v>1099.486779934396</v>
+        <v>1099.486779934395</v>
       </c>
       <c r="O23" t="n">
         <v>1428.766723477139</v>
       </c>
       <c r="P23" t="n">
-        <v>2178.580722724627</v>
+        <v>2178.580722724628</v>
       </c>
       <c r="Q23" t="n">
-        <v>2810.632127459411</v>
+        <v>2810.632127459412</v>
       </c>
       <c r="R23" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="S23" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574624</v>
       </c>
       <c r="U23" t="n">
-        <v>2770.393875188898</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V23" t="n">
-        <v>2641.727496222447</v>
+        <v>2204.571586017197</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.727496222447</v>
+        <v>2204.571586017197</v>
       </c>
       <c r="X23" t="n">
-        <v>2222.585032801758</v>
+        <v>2204.571586017197</v>
       </c>
       <c r="Y23" t="n">
-        <v>2222.585032801758</v>
+        <v>1796.28546231685</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G24" t="n">
-        <v>98.14973563097179</v>
+        <v>98.1497356309718</v>
       </c>
       <c r="H24" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2489498138752</v>
+        <v>75.1852766534176</v>
       </c>
       <c r="J24" t="n">
-        <v>465.8550024162122</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K24" t="n">
-        <v>534.3029476545579</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L24" t="n">
-        <v>626.3396570286052</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M24" t="n">
-        <v>733.7421557769885</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N24" t="n">
-        <v>843.9872790811322</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O24" t="n">
-        <v>944.8400287713441</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P24" t="n">
-        <v>1025.783251733212</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q24" t="n">
-        <v>1565.925582547988</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R24" t="n">
         <v>1709.416341813906</v>
@@ -6138,22 +6138,22 @@
         <v>440.2541966243342</v>
       </c>
       <c r="G25" t="n">
-        <v>275.0255070764518</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H25" t="n">
-        <v>138.3470468296597</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I25" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="J25" t="n">
-        <v>172.2953727318073</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K25" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775058</v>
       </c>
       <c r="L25" t="n">
-        <v>959.3850626138549</v>
+        <v>959.385062613855</v>
       </c>
       <c r="M25" t="n">
         <v>1474.574788898945</v>
@@ -6165,19 +6165,19 @@
         <v>2441.114070398671</v>
       </c>
       <c r="P25" t="n">
-        <v>2831.601347685255</v>
+        <v>2831.601347685256</v>
       </c>
       <c r="Q25" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="R25" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S25" t="n">
-        <v>2871.514356483786</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T25" t="n">
-        <v>2627.184138701844</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U25" t="n">
         <v>2348.770915341837</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1981.477354637816</v>
+        <v>1507.958994928403</v>
       </c>
       <c r="C26" t="n">
-        <v>1543.334881821239</v>
+        <v>1069.816522111826</v>
       </c>
       <c r="D26" t="n">
-        <v>1107.425096995684</v>
+        <v>1069.816522111826</v>
       </c>
       <c r="E26" t="n">
-        <v>673.6503521539789</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="F26" t="n">
-        <v>245.7829225631867</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G26" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H26" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I26" t="n">
-        <v>90.72522887302324</v>
+        <v>90.72522887302334</v>
       </c>
       <c r="J26" t="n">
-        <v>593.2199906656807</v>
+        <v>593.2199906656809</v>
       </c>
       <c r="K26" t="n">
-        <v>693.9954319098066</v>
+        <v>889.7924543443188</v>
       </c>
       <c r="L26" t="n">
-        <v>819.0162779472263</v>
+        <v>1014.813300381739</v>
       </c>
       <c r="M26" t="n">
-        <v>958.1260581019595</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N26" t="n">
-        <v>1099.486779934394</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O26" t="n">
-        <v>1428.766723477138</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P26" t="n">
-        <v>2178.580722724627</v>
+        <v>2178.580722724628</v>
       </c>
       <c r="Q26" t="n">
-        <v>2810.632127459411</v>
+        <v>2810.632127459412</v>
       </c>
       <c r="R26" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="S26" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T26" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U26" t="n">
-        <v>2770.393875188897</v>
+        <v>2705.161639179831</v>
       </c>
       <c r="V26" t="n">
-        <v>2407.776925122724</v>
+        <v>2342.544689113657</v>
       </c>
       <c r="W26" t="n">
-        <v>2407.776925122724</v>
+        <v>2342.544689113657</v>
       </c>
       <c r="X26" t="n">
-        <v>2407.776925122724</v>
+        <v>2342.544689113657</v>
       </c>
       <c r="Y26" t="n">
-        <v>2407.776925122724</v>
+        <v>1934.25856541331</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>98.1497356309718</v>
       </c>
       <c r="H27" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I27" t="n">
-        <v>101.2489498138751</v>
+        <v>75.1852766534176</v>
       </c>
       <c r="J27" t="n">
-        <v>465.855002416212</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K27" t="n">
-        <v>534.3029476545574</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L27" t="n">
-        <v>626.3396570286044</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M27" t="n">
-        <v>733.7421557769874</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N27" t="n">
-        <v>843.9872790811306</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O27" t="n">
-        <v>944.8400287713423</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P27" t="n">
-        <v>1025.78325173321</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q27" t="n">
-        <v>1565.925582547988</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R27" t="n">
         <v>1709.416341813906</v>
@@ -6375,40 +6375,40 @@
         <v>440.2541966243342</v>
       </c>
       <c r="G28" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H28" t="n">
         <v>138.3470468296598</v>
       </c>
       <c r="I28" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222133</v>
       </c>
       <c r="J28" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K28" t="n">
-        <v>488.3413572775059</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L28" t="n">
-        <v>959.3850626138549</v>
+        <v>959.3850626138548</v>
       </c>
       <c r="M28" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N28" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O28" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P28" t="n">
-        <v>2831.601347685254</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q28" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="R28" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S28" t="n">
         <v>2871.514356483785</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1796.28546231685</v>
+        <v>1616.084724020879</v>
       </c>
       <c r="C29" t="n">
-        <v>1358.142989500274</v>
+        <v>1177.942251204302</v>
       </c>
       <c r="D29" t="n">
-        <v>922.2332046747184</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E29" t="n">
-        <v>488.4584598330136</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F29" t="n">
-        <v>60.59103024222131</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G29" t="n">
-        <v>60.59103024222131</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H29" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I29" t="n">
-        <v>90.72522887302331</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J29" t="n">
         <v>593.2199906656809</v>
@@ -6478,7 +6478,7 @@
         <v>1748.525337937758</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.810202548333</v>
+        <v>1882.00825904599</v>
       </c>
       <c r="P29" t="n">
         <v>2347.734787477684</v>
@@ -6490,25 +6490,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S29" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T29" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U29" t="n">
-        <v>3029.551512111066</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V29" t="n">
-        <v>3029.551512111066</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="W29" t="n">
-        <v>3029.551512111066</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="X29" t="n">
-        <v>2630.871156502105</v>
+        <v>1706.873428165592</v>
       </c>
       <c r="Y29" t="n">
-        <v>2222.585032801758</v>
+        <v>1616.084724020879</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>562.1533380346312</v>
       </c>
       <c r="C30" t="n">
-        <v>455.6968768712735</v>
+        <v>455.6968768712736</v>
       </c>
       <c r="D30" t="n">
         <v>360.6065880178268</v>
@@ -6533,10 +6533,10 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G30" t="n">
-        <v>98.14973563097178</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H30" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I30" t="n">
         <v>101.2489498138752</v>
@@ -6600,16 +6600,16 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C31" t="n">
-        <v>952.5972472103184</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D31" t="n">
-        <v>786.7192544118411</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E31" t="n">
-        <v>616.9612506625783</v>
+        <v>616.9612506625781</v>
       </c>
       <c r="F31" t="n">
-        <v>440.2541966243346</v>
+        <v>440.2541966243344</v>
       </c>
       <c r="G31" t="n">
         <v>275.0255070764518</v>
@@ -6618,25 +6618,25 @@
         <v>138.3470468296597</v>
       </c>
       <c r="I31" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J31" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K31" t="n">
-        <v>488.3413572775052</v>
+        <v>488.3413572775055</v>
       </c>
       <c r="L31" t="n">
-        <v>959.3850626138542</v>
+        <v>959.3850626138545</v>
       </c>
       <c r="M31" t="n">
-        <v>1474.574788898944</v>
+        <v>1474.574788898945</v>
       </c>
       <c r="N31" t="n">
         <v>1971.214890339986</v>
       </c>
       <c r="O31" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P31" t="n">
         <v>2831.601347685255</v>
@@ -6648,10 +6648,10 @@
         <v>3024.436850074898</v>
       </c>
       <c r="S31" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T31" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U31" t="n">
         <v>2348.770915341838</v>
@@ -6666,7 +6666,7 @@
         <v>1544.397248131972</v>
       </c>
       <c r="Y31" t="n">
-        <v>1316.977577446081</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>683.9610769187456</v>
+        <v>1312.874313296968</v>
       </c>
       <c r="C32" t="n">
-        <v>341.4429570121957</v>
+        <v>874.7318404803914</v>
       </c>
       <c r="D32" t="n">
-        <v>341.4429570121957</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E32" t="n">
-        <v>341.4429570121957</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F32" t="n">
-        <v>341.4429570121957</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G32" t="n">
         <v>341.4429570121957</v>
       </c>
       <c r="H32" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I32" t="n">
-        <v>90.72522887302331</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J32" t="n">
         <v>593.2199906656809</v>
       </c>
       <c r="K32" t="n">
-        <v>1343.03398991317</v>
+        <v>889.7924543443186</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.702714699876</v>
+        <v>1014.813300381738</v>
       </c>
       <c r="M32" t="n">
-        <v>1789.812494854609</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N32" t="n">
-        <v>1931.173216687044</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O32" t="n">
-        <v>2064.656137795276</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P32" t="n">
         <v>2178.580722724627</v>
@@ -6727,25 +6727,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S32" t="n">
-        <v>2964.319276101998</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T32" t="n">
-        <v>2964.319276101998</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U32" t="n">
-        <v>2705.16163917983</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V32" t="n">
-        <v>2342.544689113656</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="W32" t="n">
-        <v>1937.689234524689</v>
+        <v>1721.160436997314</v>
       </c>
       <c r="X32" t="n">
-        <v>1518.546771104</v>
+        <v>1721.160436997314</v>
       </c>
       <c r="Y32" t="n">
-        <v>1110.260647403653</v>
+        <v>1312.874313296968</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>562.1533380346312</v>
       </c>
       <c r="C33" t="n">
-        <v>455.6968768712735</v>
+        <v>455.6968768712736</v>
       </c>
       <c r="D33" t="n">
         <v>360.6065880178268</v>
@@ -6770,37 +6770,37 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G33" t="n">
-        <v>98.14973563097178</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H33" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I33" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341759</v>
       </c>
       <c r="J33" t="n">
-        <v>465.8550024162122</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K33" t="n">
-        <v>534.3029476545578</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L33" t="n">
-        <v>626.339657028605</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M33" t="n">
-        <v>733.7421557769882</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N33" t="n">
-        <v>843.9872790811318</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O33" t="n">
-        <v>944.8400287713436</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P33" t="n">
-        <v>1025.783251733212</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q33" t="n">
-        <v>1565.925582547988</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R33" t="n">
         <v>1709.416341813906</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1125.158958727093</v>
+        <v>1125.158958727094</v>
       </c>
       <c r="C34" t="n">
-        <v>952.597247210318</v>
+        <v>952.597247210319</v>
       </c>
       <c r="D34" t="n">
-        <v>786.7192544118407</v>
+        <v>786.7192544118416</v>
       </c>
       <c r="E34" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625785</v>
       </c>
       <c r="F34" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243349</v>
       </c>
       <c r="G34" t="n">
         <v>275.025507076452</v>
@@ -6855,25 +6855,25 @@
         <v>138.3470468296598</v>
       </c>
       <c r="I34" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J34" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K34" t="n">
-        <v>488.3413572775052</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L34" t="n">
-        <v>959.3850626138542</v>
+        <v>959.3850626138548</v>
       </c>
       <c r="M34" t="n">
-        <v>1474.574788898944</v>
+        <v>1474.574788898945</v>
       </c>
       <c r="N34" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O34" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P34" t="n">
         <v>2831.601347685255</v>
@@ -6882,28 +6882,28 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R34" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S34" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T34" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U34" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.815407212268</v>
+        <v>2061.815407212269</v>
       </c>
       <c r="W34" t="n">
         <v>1789.78900279856</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.397248131972</v>
+        <v>1544.397248131973</v>
       </c>
       <c r="Y34" t="n">
-        <v>1316.97757744608</v>
+        <v>1316.977577446081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1796.28546231685</v>
+        <v>1760.965186857846</v>
       </c>
       <c r="C35" t="n">
-        <v>1358.142989500274</v>
+        <v>1322.822714041269</v>
       </c>
       <c r="D35" t="n">
-        <v>922.2332046747184</v>
+        <v>1322.822714041269</v>
       </c>
       <c r="E35" t="n">
-        <v>488.4584598330136</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="F35" t="n">
-        <v>60.59103024222132</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G35" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H35" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I35" t="n">
-        <v>90.72522887302333</v>
+        <v>90.72522887302334</v>
       </c>
       <c r="J35" t="n">
         <v>593.2199906656809</v>
       </c>
       <c r="K35" t="n">
-        <v>693.9954319098072</v>
+        <v>889.7924543443188</v>
       </c>
       <c r="L35" t="n">
-        <v>819.0162779472272</v>
+        <v>1014.813300381739</v>
       </c>
       <c r="M35" t="n">
-        <v>958.1260581019608</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N35" t="n">
-        <v>1099.486779934395</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O35" t="n">
         <v>1428.766723477139</v>
       </c>
       <c r="P35" t="n">
-        <v>2178.580722724627</v>
+        <v>2178.580722724628</v>
       </c>
       <c r="Q35" t="n">
-        <v>2810.632127459411</v>
+        <v>2810.632127459412</v>
       </c>
       <c r="R35" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="S35" t="n">
-        <v>3028.569504026853</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T35" t="n">
-        <v>3028.569504026853</v>
+        <v>2747.790478574624</v>
       </c>
       <c r="U35" t="n">
-        <v>3028.569504026853</v>
+        <v>2747.790478574624</v>
       </c>
       <c r="V35" t="n">
-        <v>3028.569504026853</v>
+        <v>2747.790478574624</v>
       </c>
       <c r="W35" t="n">
-        <v>2623.714049437886</v>
+        <v>2342.935023985657</v>
       </c>
       <c r="X35" t="n">
-        <v>2204.571586017197</v>
+        <v>2342.935023985657</v>
       </c>
       <c r="Y35" t="n">
-        <v>1796.28546231685</v>
+        <v>2187.264757342754</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G36" t="n">
-        <v>98.14973563097179</v>
+        <v>98.1497356309718</v>
       </c>
       <c r="H36" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I36" t="n">
         <v>101.2489498138752</v>
@@ -7080,28 +7080,28 @@
         <v>786.7192544118407</v>
       </c>
       <c r="E37" t="n">
-        <v>616.9612506625779</v>
+        <v>616.961250662578</v>
       </c>
       <c r="F37" t="n">
-        <v>440.2541966243341</v>
+        <v>440.2541966243342</v>
       </c>
       <c r="G37" t="n">
-        <v>275.0255070764518</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H37" t="n">
-        <v>138.3470468296597</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I37" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="J37" t="n">
-        <v>172.2953727318074</v>
+        <v>172.2953727318076</v>
       </c>
       <c r="K37" t="n">
-        <v>488.3413572775056</v>
+        <v>488.3413572775058</v>
       </c>
       <c r="L37" t="n">
-        <v>959.3850626138546</v>
+        <v>959.3850626138549</v>
       </c>
       <c r="M37" t="n">
         <v>1474.574788898945</v>
@@ -7113,10 +7113,10 @@
         <v>2441.114070398671</v>
       </c>
       <c r="P37" t="n">
-        <v>2831.601347685255</v>
+        <v>2831.601347685256</v>
       </c>
       <c r="Q37" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="R37" t="n">
         <v>3024.436850074897</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1797.267470401064</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="C38" t="n">
-        <v>1359.124997584488</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="D38" t="n">
-        <v>923.215212758932</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="E38" t="n">
-        <v>489.4404679172272</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="F38" t="n">
-        <v>61.57303832643493</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G38" t="n">
         <v>60.59103024222134</v>
@@ -7174,25 +7174,25 @@
         <v>90.72522887302334</v>
       </c>
       <c r="J38" t="n">
-        <v>157.9653032127631</v>
+        <v>593.2199906656809</v>
       </c>
       <c r="K38" t="n">
-        <v>258.7407444568894</v>
+        <v>693.9954319098072</v>
       </c>
       <c r="L38" t="n">
-        <v>1008.554743704378</v>
+        <v>819.0162779472272</v>
       </c>
       <c r="M38" t="n">
-        <v>1727.858003398151</v>
+        <v>958.1260581019608</v>
       </c>
       <c r="N38" t="n">
-        <v>2477.67200264564</v>
+        <v>1099.486779934395</v>
       </c>
       <c r="O38" t="n">
-        <v>2611.154923753872</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P38" t="n">
-        <v>2725.079508683223</v>
+        <v>2178.580722724628</v>
       </c>
       <c r="Q38" t="n">
         <v>2810.632127459412</v>
@@ -7201,25 +7201,25 @@
         <v>3029.551512111067</v>
       </c>
       <c r="S38" t="n">
-        <v>3029.551512111067</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T38" t="n">
-        <v>3029.551512111067</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U38" t="n">
-        <v>3029.551512111067</v>
+        <v>2910.248531460648</v>
       </c>
       <c r="V38" t="n">
-        <v>3029.551512111067</v>
+        <v>2547.631581394475</v>
       </c>
       <c r="W38" t="n">
-        <v>2624.6960575221</v>
+        <v>2142.776126805508</v>
       </c>
       <c r="X38" t="n">
-        <v>2205.553594101411</v>
+        <v>1723.633663384819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1797.267470401064</v>
+        <v>1315.347539684472</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.59103024222134</v>
       </c>
       <c r="I39" t="n">
-        <v>101.2489498138752</v>
+        <v>75.1852766534176</v>
       </c>
       <c r="J39" t="n">
-        <v>465.8550024162122</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K39" t="n">
-        <v>534.3029476545578</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L39" t="n">
-        <v>626.339657028605</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M39" t="n">
-        <v>733.7421557769882</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N39" t="n">
-        <v>843.9872790811318</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O39" t="n">
-        <v>944.8400287713436</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P39" t="n">
-        <v>1025.783251733212</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q39" t="n">
-        <v>1565.925582547988</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R39" t="n">
         <v>1709.416341813906</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1125.158958727093</v>
+        <v>1125.158958727094</v>
       </c>
       <c r="C40" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103189</v>
       </c>
       <c r="D40" t="n">
-        <v>786.7192544118407</v>
+        <v>786.7192544118416</v>
       </c>
       <c r="E40" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625788</v>
       </c>
       <c r="F40" t="n">
-        <v>440.2541966243342</v>
+        <v>440.254196624335</v>
       </c>
       <c r="G40" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764528</v>
       </c>
       <c r="H40" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296606</v>
       </c>
       <c r="I40" t="n">
         <v>60.59103024222133</v>
       </c>
       <c r="J40" t="n">
-        <v>172.2953727318076</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K40" t="n">
-        <v>488.3413572775058</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L40" t="n">
-        <v>959.3850626138549</v>
+        <v>959.3850626138548</v>
       </c>
       <c r="M40" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N40" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O40" t="n">
         <v>2441.114070398671</v>
@@ -7356,28 +7356,28 @@
         <v>3029.551512111067</v>
       </c>
       <c r="R40" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S40" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T40" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U40" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V40" t="n">
-        <v>2061.815407212268</v>
+        <v>2061.815407212269</v>
       </c>
       <c r="W40" t="n">
         <v>1789.78900279856</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.397248131972</v>
+        <v>1544.397248131973</v>
       </c>
       <c r="Y40" t="n">
-        <v>1316.97757744608</v>
+        <v>1316.977577446081</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.28546231685</v>
+        <v>958.964085885346</v>
       </c>
       <c r="C41" t="n">
-        <v>1358.142989500274</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="D41" t="n">
-        <v>922.2332046747184</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E41" t="n">
-        <v>488.4584598330136</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F41" t="n">
-        <v>60.59103024222134</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G41" t="n">
-        <v>60.59103024222134</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H41" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I41" t="n">
-        <v>90.72522887302334</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J41" t="n">
-        <v>593.2199906656811</v>
+        <v>157.965303212763</v>
       </c>
       <c r="K41" t="n">
-        <v>889.792454344319</v>
+        <v>258.7407444568893</v>
       </c>
       <c r="L41" t="n">
-        <v>1014.813300381739</v>
+        <v>383.7615904943093</v>
       </c>
       <c r="M41" t="n">
-        <v>1153.923080536473</v>
+        <v>522.8713706490429</v>
       </c>
       <c r="N41" t="n">
-        <v>1295.283802368907</v>
+        <v>678.9527242296499</v>
       </c>
       <c r="O41" t="n">
         <v>1428.766723477139</v>
       </c>
       <c r="P41" t="n">
-        <v>2178.580722724628</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q41" t="n">
-        <v>2810.632127459412</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R41" t="n">
-        <v>3029.551512111067</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="S41" t="n">
-        <v>3028.569504026853</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T41" t="n">
-        <v>3028.569504026853</v>
+        <v>2813.022714583691</v>
       </c>
       <c r="U41" t="n">
-        <v>3028.569504026853</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V41" t="n">
-        <v>3028.569504026853</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="W41" t="n">
-        <v>2623.714049437886</v>
+        <v>1786.392673006382</v>
       </c>
       <c r="X41" t="n">
-        <v>2204.571586017197</v>
+        <v>1367.250209585693</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.28546231685</v>
+        <v>958.964085885346</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G42" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H42" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I42" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341759</v>
       </c>
       <c r="J42" t="n">
-        <v>465.8550024162122</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K42" t="n">
-        <v>534.3029476545578</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L42" t="n">
-        <v>626.339657028605</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M42" t="n">
-        <v>733.7421557769882</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N42" t="n">
-        <v>843.9872790811318</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O42" t="n">
-        <v>944.8400287713436</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P42" t="n">
-        <v>1025.783251733212</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q42" t="n">
-        <v>1565.925582547988</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R42" t="n">
         <v>1709.416341813906</v>
@@ -7548,52 +7548,52 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C43" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D43" t="n">
         <v>786.7192544118407</v>
       </c>
       <c r="E43" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F43" t="n">
-        <v>440.2541966243342</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G43" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764515</v>
       </c>
       <c r="H43" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296596</v>
       </c>
       <c r="I43" t="n">
-        <v>60.59103024222134</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J43" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K43" t="n">
-        <v>488.3413572775058</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L43" t="n">
-        <v>959.385062613855</v>
+        <v>959.3850626138545</v>
       </c>
       <c r="M43" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N43" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O43" t="n">
         <v>2441.114070398671</v>
       </c>
       <c r="P43" t="n">
-        <v>2831.601347685256</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q43" t="n">
-        <v>3029.551512111067</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="R43" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S43" t="n">
         <v>2871.514356483785</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>498.0150777315366</v>
+        <v>1180.174939195323</v>
       </c>
       <c r="C44" t="n">
-        <v>59.87260491495994</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="D44" t="n">
-        <v>59.87260491495994</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E44" t="n">
-        <v>59.87260491495994</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F44" t="n">
-        <v>59.87260491495994</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G44" t="n">
-        <v>59.87260491495994</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H44" t="n">
-        <v>59.87260491495994</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I44" t="n">
-        <v>131.0725551661405</v>
+        <v>90.72522887302331</v>
       </c>
       <c r="J44" t="n">
-        <v>288.7193304095858</v>
+        <v>157.965303212763</v>
       </c>
       <c r="K44" t="n">
-        <v>524.9909807888067</v>
+        <v>889.7924543443181</v>
       </c>
       <c r="L44" t="n">
-        <v>818.1068556527074</v>
+        <v>1014.813300381738</v>
       </c>
       <c r="M44" t="n">
-        <v>1559.030341475336</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N44" t="n">
-        <v>2096.316660732227</v>
+        <v>1295.283802368906</v>
       </c>
       <c r="O44" t="n">
-        <v>2409.27217527352</v>
+        <v>1428.766723477138</v>
       </c>
       <c r="P44" t="n">
-        <v>2676.372466452789</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q44" t="n">
-        <v>2876.953661463856</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R44" t="n">
-        <v>2993.630245747997</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="S44" t="n">
-        <v>2953.163875962794</v>
+        <v>2964.319276101998</v>
       </c>
       <c r="T44" t="n">
-        <v>2741.392624431906</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U44" t="n">
-        <v>2482.32193295342</v>
+        <v>2488.632841652454</v>
       </c>
       <c r="V44" t="n">
-        <v>2119.704982887247</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="W44" t="n">
-        <v>1714.84952829828</v>
+        <v>1721.160436997314</v>
       </c>
       <c r="X44" t="n">
-        <v>1295.707064877591</v>
+        <v>1302.017973576625</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.4209411772441</v>
+        <v>1180.174939195323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>555.2373584323959</v>
+        <v>562.1533380346312</v>
       </c>
       <c r="C45" t="n">
-        <v>448.7808972690382</v>
+        <v>455.6968768712735</v>
       </c>
       <c r="D45" t="n">
-        <v>353.6906084155914</v>
+        <v>360.6065880178268</v>
       </c>
       <c r="E45" t="n">
-        <v>259.5701937425451</v>
+        <v>266.4861733447805</v>
       </c>
       <c r="F45" t="n">
-        <v>176.1863553587067</v>
+        <v>183.1023349609421</v>
       </c>
       <c r="G45" t="n">
-        <v>91.8152549483637</v>
+        <v>98.14973563097178</v>
       </c>
       <c r="H45" t="n">
-        <v>59.87260491495994</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I45" t="n">
-        <v>94.08934108643606</v>
+        <v>75.18527665341757</v>
       </c>
       <c r="J45" t="n">
-        <v>187.9826804329032</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K45" t="n">
-        <v>348.4613524870734</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L45" t="n">
-        <v>564.2447313620958</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M45" t="n">
-        <v>816.053756664793</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N45" t="n">
-        <v>1074.527417586113</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O45" t="n">
-        <v>1310.980320400644</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P45" t="n">
-        <v>1500.75462096545</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q45" t="n">
-        <v>1627.613715173684</v>
+        <v>1594.566918166798</v>
       </c>
       <c r="R45" t="n">
-        <v>1689.317169599597</v>
+        <v>1709.416341813906</v>
       </c>
       <c r="S45" t="n">
-        <v>1644.696138999331</v>
+        <v>1653.994223824951</v>
       </c>
       <c r="T45" t="n">
-        <v>1518.604583874984</v>
+        <v>1525.558819985089</v>
       </c>
       <c r="U45" t="n">
-        <v>1342.334746698865</v>
+        <v>1349.2507263011</v>
       </c>
       <c r="V45" t="n">
-        <v>1143.217228760864</v>
+        <v>1150.1332083631</v>
       </c>
       <c r="W45" t="n">
-        <v>957.8944744940584</v>
+        <v>964.8104540962936</v>
       </c>
       <c r="X45" t="n">
-        <v>803.0270387329383</v>
+        <v>809.9430183351736</v>
       </c>
       <c r="Y45" t="n">
-        <v>676.5412595121591</v>
+        <v>683.4572391143944</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1104.957894589636</v>
+        <v>1125.158958727093</v>
       </c>
       <c r="C46" t="n">
-        <v>932.3961830728614</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D46" t="n">
-        <v>766.5181902743841</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E46" t="n">
-        <v>596.7601865251213</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F46" t="n">
-        <v>420.0531324868775</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G46" t="n">
-        <v>255.311952099396</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H46" t="n">
-        <v>122.9678914787119</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I46" t="n">
-        <v>59.87260491495994</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="J46" t="n">
-        <v>205.3579537818329</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K46" t="n">
-        <v>576.9165089205267</v>
+        <v>488.3413572775052</v>
       </c>
       <c r="L46" t="n">
-        <v>1118.997192306786</v>
+        <v>959.3850626138543</v>
       </c>
       <c r="M46" t="n">
-        <v>1249.601584645315</v>
+        <v>1474.574788898944</v>
       </c>
       <c r="N46" t="n">
-        <v>1753.488026254673</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.923156828216</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P46" t="n">
-        <v>2739.199106976241</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q46" t="n">
-        <v>2977.159153071229</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="R46" t="n">
-        <v>2993.630245747997</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S46" t="n">
-        <v>2849.203707252232</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T46" t="n">
-        <v>2606.956483155638</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U46" t="n">
-        <v>2328.569851204381</v>
+        <v>2348.770915341837</v>
       </c>
       <c r="V46" t="n">
-        <v>2041.614343074811</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W46" t="n">
-        <v>1769.587938661103</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X46" t="n">
-        <v>1524.196183994515</v>
+        <v>1544.397248131972</v>
       </c>
       <c r="Y46" t="n">
-        <v>1296.776513308624</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,10 +8142,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>423.3874668252226</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>422.9344153444721</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>226.7971432051864</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>226.9747836954241</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>422.7567748542347</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>423.1400705347065</v>
+        <v>423.1400705347066</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>423.3711488973249</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>351.1690701518925</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>423.2023419153954</v>
+        <v>351.0002631699631</v>
       </c>
       <c r="Q12" t="n">
-        <v>423.5648712975068</v>
+        <v>423.5648712975069</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>423.543290177526</v>
       </c>
       <c r="N13" t="n">
-        <v>423.5611845468617</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>200.7344316471124</v>
+        <v>200.752326016448</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8929,7 +8929,7 @@
         <v>423.3874668252226</v>
       </c>
       <c r="K14" t="n">
-        <v>422.9344153444721</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>226.9747836954239</v>
       </c>
       <c r="P14" t="n">
-        <v>226.7971432051863</v>
+        <v>422.7567748542347</v>
       </c>
       <c r="Q14" t="n">
-        <v>423.1400705347065</v>
+        <v>423.1400705347066</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9005,25 +9005,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>423.3711488973249</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>351.0002631699632</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>256.0723911034801</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>422.9333709334754</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.2023419153954</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>423.5648712975069</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>423.543290177526</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3399957887685</v>
+        <v>423.5611845468617</v>
       </c>
       <c r="O16" t="n">
-        <v>423.6172681190484</v>
+        <v>200.7344316471124</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>656.785651470586</v>
+        <v>655.5945030336994</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>627.0490237928379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.3103418348624</v>
+        <v>94.19924281792282</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458609</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>562.5456274043762</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>655.5945030336994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>94.19924281792294</v>
+        <v>197.7747701358708</v>
       </c>
       <c r="P20" t="n">
-        <v>642.3125397152909</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.943363487685</v>
+        <v>517.2703060740059</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>197.7747701358692</v>
+        <v>197.7747701358701</v>
       </c>
       <c r="P23" t="n">
-        <v>642.3125397152908</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.9433634876837</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>197.7747701358703</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>197.7747701358712</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>642.3125397152911</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>490.9433634876858</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>655.5945030336994</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>355.3554984872152</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>355.3554984872155</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10351,10 +10351,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>655.5945030336994</v>
+        <v>197.7747701358701</v>
       </c>
       <c r="L32" t="n">
-        <v>184.4928068174609</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>490.9433634876841</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>197.7747701358703</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.7747701358698</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>642.3125397152908</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>631.1041951616858</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>586.054019736403</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>614.5992701162165</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>197.7747701358701</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>490.9433634876841</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>197.7747701358704</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>14.86932499815384</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>622.5566445851078</v>
       </c>
       <c r="P41" t="n">
-        <v>642.3125397152912</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>490.9433634876841</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>637.4259695832615</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>418.9652501553958</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>207.940421495367</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>89.42569947023139</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>380.1894240459273</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>18.87936968596779</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>421.2384502438704</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22609,7 +22609,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>175.2078860600423</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>79.07636865564615</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22792,19 +22792,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>200.1711591522299</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>334.501946431074</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>77.54146348266089</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>118.4450302662447</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>241.7269600065532</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>26.3800065141491</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23181,13 +23181,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>29.19938347714142</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -23241,7 +23241,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.1292424873029</v>
+        <v>17.9087750152168</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6292234284552</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>151.1690192940054</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9305612960722</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>212.0937223329102</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>26.50037834883386</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>105.1577566865508</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3731502167427</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>137.9109103726845</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.4604679489429</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>83.81702095498024</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>427.5718257036389</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.6635762632171</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.40204750365993</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7135431647788</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>63.55395493899965</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38.67729699741655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.5836142728854</v>
+        <v>335.8756668628637</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>214.3635095521018</v>
@@ -24028,16 +24028,16 @@
         <v>256.5660605529466</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>238.9442735946495</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.57991364897663</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>231.6110653887259</v>
+        <v>77.7701374866063</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>250.4761300101488</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>213.2436408751297</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>278.0434075022746</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.5799136489767</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>214.3635095521018</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897666</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>20.25748673361124</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>314.322445360077</v>
       </c>
     </row>
     <row r="30">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>94.66810938092664</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>300.1783066166716</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24931,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>278.0434075022746</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.60772564560554</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5660605529466</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>250.0896984868693</v>
       </c>
     </row>
     <row r="36">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.6114262695139</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>278.0434075022746</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.57991364897666</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5660605529466</v>
+        <v>203.0360233580094</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>218.9987447768776</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.60772564560464</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.5247699688083</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>283.5786584258548</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349269.2860583534</v>
+        <v>349269.2860583535</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349269.2860583534</v>
+        <v>349269.2860583533</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>524140.1421544648</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>527749.6571838431</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>527749.6571838431</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>527749.6571838431</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527749.6571838431</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527749.6571838433</v>
+        <v>527749.6571838432</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499873.8951643227</v>
+        <v>527749.6571838431</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>114192.2206839698</v>
       </c>
       <c r="C2" t="n">
+        <v>114192.2206839699</v>
+      </c>
+      <c r="D2" t="n">
         <v>114192.2206839698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>114192.2206839699</v>
       </c>
       <c r="E2" t="n">
         <v>114229.2350686635</v>
@@ -26328,7 +26328,7 @@
         <v>114229.2350686635</v>
       </c>
       <c r="G2" t="n">
-        <v>177545.8414868814</v>
+        <v>179420.829796677</v>
       </c>
       <c r="H2" t="n">
         <v>179420.829796677</v>
@@ -26349,13 +26349,13 @@
         <v>179420.829796677</v>
       </c>
       <c r="N2" t="n">
-        <v>179420.8297966771</v>
+        <v>179420.829796677</v>
       </c>
       <c r="O2" t="n">
-        <v>179420.8297966771</v>
+        <v>179420.829796677</v>
       </c>
       <c r="P2" t="n">
-        <v>179668.8052784821</v>
+        <v>179420.829796677</v>
       </c>
     </row>
     <row r="3">
@@ -26380,19 +26380,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>226065.6818137436</v>
+        <v>243991.6921208054</v>
       </c>
       <c r="H3" t="n">
-        <v>17653.29985210045</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.209162002804078e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449896</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>3.724431962837116e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>77997.80565930462</v>
+        <v>80158.92782718937</v>
       </c>
       <c r="P3" t="n">
-        <v>178136.4439216278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>43292.95496317923</v>
       </c>
       <c r="E4" t="n">
+        <v>43021.88728466249</v>
+      </c>
+      <c r="F4" t="n">
         <v>43021.8872846625</v>
       </c>
-      <c r="F4" t="n">
-        <v>43021.88728466249</v>
-      </c>
       <c r="G4" t="n">
-        <v>48136.25364511922</v>
+        <v>46718.33856561084</v>
       </c>
       <c r="H4" t="n">
         <v>46718.33856561084</v>
       </c>
       <c r="I4" t="n">
-        <v>46718.33856561081</v>
+        <v>46718.33856561083</v>
       </c>
       <c r="J4" t="n">
-        <v>46718.33856561085</v>
+        <v>46718.33856561084</v>
       </c>
       <c r="K4" t="n">
-        <v>46718.33856561081</v>
+        <v>46718.33856561083</v>
       </c>
       <c r="L4" t="n">
-        <v>46718.33856561081</v>
+        <v>46718.33856561083</v>
       </c>
       <c r="M4" t="n">
-        <v>46718.33856561082</v>
+        <v>46718.33856561083</v>
       </c>
       <c r="N4" t="n">
         <v>46718.33856561083</v>
       </c>
       <c r="O4" t="n">
-        <v>46718.33856561084</v>
+        <v>46718.33856561082</v>
       </c>
       <c r="P4" t="n">
-        <v>18170.18730210743</v>
+        <v>46718.33856561082</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>25855.22699659488</v>
       </c>
       <c r="G5" t="n">
-        <v>49409.06075122295</v>
+        <v>50388.67788301277</v>
       </c>
       <c r="H5" t="n">
         <v>50388.67788301277</v>
       </c>
       <c r="I5" t="n">
+        <v>50388.67788301279</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50388.67788301279</v>
+      </c>
+      <c r="K5" t="n">
         <v>50388.67788301278</v>
       </c>
-      <c r="J5" t="n">
-        <v>50388.67788301276</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50388.67788301277</v>
-      </c>
       <c r="L5" t="n">
-        <v>50388.67788301277</v>
+        <v>50388.67788301278</v>
       </c>
       <c r="M5" t="n">
-        <v>50388.67788301278</v>
+        <v>50388.67788301279</v>
       </c>
       <c r="N5" t="n">
         <v>50388.67788301279</v>
       </c>
       <c r="O5" t="n">
-        <v>50388.6778830128</v>
+        <v>50388.67788301278</v>
       </c>
       <c r="P5" t="n">
-        <v>55677.28176780177</v>
+        <v>50388.67788301277</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130716.8230761416</v>
+        <v>-131456.1796880573</v>
       </c>
       <c r="C6" t="n">
-        <v>11474.47758356829</v>
+        <v>10735.12097165264</v>
       </c>
       <c r="D6" t="n">
-        <v>11474.4775835683</v>
+        <v>10735.12097165262</v>
       </c>
       <c r="E6" t="n">
-        <v>43213.19446921922</v>
+        <v>42474.03266985454</v>
       </c>
       <c r="F6" t="n">
-        <v>45352.12078740614</v>
+        <v>44612.95898804147</v>
       </c>
       <c r="G6" t="n">
-        <v>-146065.1547232044</v>
+        <v>-162073.9269156535</v>
       </c>
       <c r="H6" t="n">
-        <v>64660.51349595294</v>
+        <v>81917.765205152</v>
       </c>
       <c r="I6" t="n">
-        <v>82313.81334805311</v>
+        <v>81917.76520515204</v>
       </c>
       <c r="J6" t="n">
-        <v>-28700.65199693626</v>
+        <v>-29096.70013983819</v>
       </c>
       <c r="K6" t="n">
-        <v>82313.81334805302</v>
+        <v>81917.76520515194</v>
       </c>
       <c r="L6" t="n">
-        <v>82313.81334805337</v>
+        <v>81917.765205152</v>
       </c>
       <c r="M6" t="n">
-        <v>82313.81334805346</v>
+        <v>81917.76520515198</v>
       </c>
       <c r="N6" t="n">
-        <v>82313.81334805346</v>
+        <v>81917.76520515204</v>
       </c>
       <c r="O6" t="n">
-        <v>4316.007688748825</v>
+        <v>1758.837377962581</v>
       </c>
       <c r="P6" t="n">
-        <v>-72315.10771305494</v>
+        <v>81917.76520515197</v>
       </c>
     </row>
   </sheetData>
@@ -26752,16 +26752,16 @@
         <v>2.662332998740292</v>
       </c>
       <c r="G3" t="n">
-        <v>179.1688539382307</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="H3" t="n">
         <v>199.059399033237</v>
       </c>
       <c r="I3" t="n">
-        <v>199.0593990332375</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="J3" t="n">
-        <v>199.0593990332368</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="K3" t="n">
         <v>199.0593990332373</v>
@@ -26779,7 +26779,7 @@
         <v>199.0593990332373</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>199.0593990332373</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>748.4075614369989</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="H4" t="n">
         <v>757.3878780277664</v>
       </c>
       <c r="I4" t="n">
+        <v>757.3878780277666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>757.3878780277666</v>
+      </c>
+      <c r="K4" t="n">
         <v>757.3878780277665</v>
       </c>
-      <c r="J4" t="n">
-        <v>757.3878780277664</v>
-      </c>
-      <c r="K4" t="n">
-        <v>757.3878780277664</v>
-      </c>
       <c r="L4" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="M4" t="n">
-        <v>757.3878780277665</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="N4" t="n">
         <v>757.3878780277666</v>
       </c>
       <c r="O4" t="n">
-        <v>757.3878780277668</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="P4" t="n">
-        <v>748.4075614369992</v>
+        <v>757.3878780277664</v>
       </c>
     </row>
   </sheetData>
@@ -26974,19 +26974,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176.5065209394904</v>
+        <v>196.3970660344968</v>
       </c>
       <c r="H3" t="n">
-        <v>19.89054509500639</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>267.6425290599839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>324.1117039168946</v>
+        <v>333.0920205076621</v>
       </c>
       <c r="H4" t="n">
-        <v>8.980316590767529</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>324.1117039168947</v>
+        <v>333.092020507662</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>324.1117039168946</v>
+        <v>333.0920205076621</v>
       </c>
       <c r="P4" t="n">
-        <v>8.980316590767529</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7202767997516805</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H17" t="n">
-        <v>7.3765347754569</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I17" t="n">
-        <v>27.76847132242669</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J17" t="n">
-        <v>61.13259303292425</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K17" t="n">
-        <v>91.6219099664129</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L17" t="n">
-        <v>113.6650810768134</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M17" t="n">
-        <v>126.4743036143974</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
-        <v>128.5207900716918</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>121.358537644161</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P17" t="n">
-        <v>103.5767041502914</v>
+        <v>115.0753383124755</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.78179125918435</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R17" t="n">
-        <v>45.24508752240154</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S17" t="n">
-        <v>16.41330757434143</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T17" t="n">
-        <v>3.153011690912983</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05762214398013443</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3853820631878924</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H18" t="n">
-        <v>3.721979399735698</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I18" t="n">
-        <v>13.26863682467086</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>36.41015361022101</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K18" t="n">
-        <v>62.2307518438098</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L18" t="n">
-        <v>83.67692560577461</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M18" t="n">
-        <v>97.64702539633569</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N18" t="n">
-        <v>100.2314516007843</v>
+        <v>111.3587104082257</v>
       </c>
       <c r="O18" t="n">
-        <v>91.69219641119999</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>73.5910713468178</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.19368231149307</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R18" t="n">
-        <v>23.92749336178862</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S18" t="n">
-        <v>7.158302796494399</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55336015820032</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02535408310446661</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3230913759541864</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H19" t="n">
-        <v>2.872576051665405</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I19" t="n">
-        <v>9.716238833240444</v>
+        <v>10.79489331150735</v>
       </c>
       <c r="J19" t="n">
-        <v>22.84256027996098</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K19" t="n">
-        <v>37.53734349722274</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L19" t="n">
-        <v>48.03487602140696</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M19" t="n">
-        <v>50.64604177798214</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N19" t="n">
-        <v>49.44179210397112</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O19" t="n">
-        <v>45.66749739396084</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P19" t="n">
-        <v>39.0764333244954</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.05449694467283</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R19" t="n">
-        <v>14.52736314063096</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S19" t="n">
-        <v>5.63060152458341</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T19" t="n">
-        <v>1.380481333622432</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01762316596113746</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833661</v>
+        <v>0.8002387900833654</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941274</v>
+        <v>8.195445508941269</v>
       </c>
       <c r="I23" t="n">
-        <v>30.851205954689</v>
+        <v>30.85120595468898</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983815</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940671</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660809</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M23" t="n">
-        <v>140.514929449226</v>
+        <v>140.5149294492258</v>
       </c>
       <c r="N23" t="n">
-        <v>142.7886079115503</v>
+        <v>142.7886079115502</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426589</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P23" t="n">
-        <v>115.0753383124757</v>
+        <v>115.0753383124756</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261516</v>
+        <v>86.41678664261509</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757429</v>
+        <v>50.26799989757425</v>
       </c>
       <c r="S23" t="n">
-        <v>18.23544142902472</v>
+        <v>18.23544142902471</v>
       </c>
       <c r="T23" t="n">
-        <v>3.503045303589937</v>
+        <v>3.503045303589934</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06401910320666927</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.428165499807341</v>
+        <v>0.4281654998073406</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086689</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I24" t="n">
-        <v>14.7416630416124</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749971</v>
+        <v>40.45225013749968</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459155</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509833</v>
+        <v>92.96637310509824</v>
       </c>
       <c r="M24" t="n">
-        <v>108.4873724731144</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N24" t="n">
-        <v>111.3587104082259</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O24" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461409</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663532</v>
+        <v>54.65495046663527</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523123</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035473</v>
+        <v>7.952986367035466</v>
       </c>
       <c r="T24" t="n">
-        <v>1.725807431240992</v>
+        <v>1.725807431240991</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02816878288206192</v>
+        <v>0.0281687828820619</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3589595720271495</v>
+        <v>0.3589595720271492</v>
       </c>
       <c r="H25" t="n">
-        <v>3.191476922205022</v>
+        <v>3.19147692220502</v>
       </c>
       <c r="I25" t="n">
-        <v>10.79489331150737</v>
+        <v>10.79489331150736</v>
       </c>
       <c r="J25" t="n">
-        <v>25.37844174231947</v>
+        <v>25.37844174231945</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188154</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392731</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26854454967398</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666374</v>
+        <v>54.9306043266637</v>
       </c>
       <c r="O25" t="n">
-        <v>50.7373038716193</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P25" t="n">
-        <v>43.41452860226541</v>
+        <v>43.41452860226537</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.05796925401886</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587528</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782231</v>
+        <v>6.255686359782225</v>
       </c>
       <c r="T25" t="n">
-        <v>1.533736353206911</v>
+        <v>1.53373635320691</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01957961301966272</v>
+        <v>0.0195796130196627</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833634</v>
+        <v>0.8002387900833654</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941248</v>
+        <v>8.195445508941269</v>
       </c>
       <c r="I26" t="n">
-        <v>30.8512059546889</v>
+        <v>30.85120595468898</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983792</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940667</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L26" t="n">
-        <v>126.2836828660805</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492255</v>
+        <v>140.5149294492258</v>
       </c>
       <c r="N26" t="n">
-        <v>142.7886079115499</v>
+        <v>142.7886079115502</v>
       </c>
       <c r="O26" t="n">
-        <v>134.8312334426584</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P26" t="n">
-        <v>115.0753383124753</v>
+        <v>115.0753383124756</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261487</v>
+        <v>86.41678664261509</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757412</v>
+        <v>50.26799989757425</v>
       </c>
       <c r="S26" t="n">
-        <v>18.23544142902466</v>
+        <v>18.23544142902471</v>
       </c>
       <c r="T26" t="n">
-        <v>3.503045303589925</v>
+        <v>3.503045303589934</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06401910320666905</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4281654998073395</v>
+        <v>0.4281654998073406</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086675</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I27" t="n">
-        <v>14.74166304161235</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J27" t="n">
-        <v>40.45225013749957</v>
+        <v>40.45225013749968</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459132</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L27" t="n">
-        <v>92.966373105098</v>
+        <v>92.96637310509824</v>
       </c>
       <c r="M27" t="n">
-        <v>108.487372473114</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N27" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O27" t="n">
-        <v>101.8714643335471</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461381</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.65495046663514</v>
+        <v>54.65495046663527</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523114</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035446</v>
+        <v>7.952986367035466</v>
       </c>
       <c r="T27" t="n">
-        <v>1.725807431240986</v>
+        <v>1.725807431240991</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02816878288206182</v>
+        <v>0.0281687828820619</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3589595720271482</v>
+        <v>0.3589595720271492</v>
       </c>
       <c r="H28" t="n">
-        <v>3.191476922205011</v>
+        <v>3.19147692220502</v>
       </c>
       <c r="I28" t="n">
-        <v>10.79489331150734</v>
+        <v>10.79489331150736</v>
       </c>
       <c r="J28" t="n">
-        <v>25.37844174231938</v>
+        <v>25.37844174231945</v>
       </c>
       <c r="K28" t="n">
-        <v>41.7045757318814</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392713</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26854454967379</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666356</v>
+        <v>54.9306043266637</v>
       </c>
       <c r="O28" t="n">
-        <v>50.73730387161912</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P28" t="n">
-        <v>43.41452860226526</v>
+        <v>43.41452860226537</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.05796925401875</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587523</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782209</v>
+        <v>6.255686359782225</v>
       </c>
       <c r="T28" t="n">
-        <v>1.533736353206906</v>
+        <v>1.53373635320691</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01957961301966266</v>
+        <v>0.0195796130196627</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>0.8002387900833654</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>8.195445508941269</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>30.85120595468898</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>140.5149294492258</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>142.7886079115502</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>115.0753383124756</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>86.41678664261509</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>50.26799989757425</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>18.23544142902471</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>3.503045303589934</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>0.4281654998073406</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>40.45225013749968</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>92.96637310509824</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>54.65495046663527</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>7.952986367035466</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>1.725807431240991</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.0281687828820619</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.3589595720271492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>3.19147692220502</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>10.79489331150736</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>25.37844174231945</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>54.9306043266637</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048099</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>43.41452860226537</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>6.255686359782225</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>1.53373635320691</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0195796130196627</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,10 +34862,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632192</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
-        <v>1.688989405823975</v>
+        <v>228.4861326110104</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397194</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N11" t="n">
-        <v>1.909735609237089</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O11" t="n">
-        <v>228.7780928775005</v>
+        <v>1.803309182076418</v>
       </c>
       <c r="P11" t="n">
-        <v>424.2958575201044</v>
+        <v>1.539082665869728</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
-        <v>171.535004334004</v>
+        <v>171.5350043340043</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794625</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458843</v>
       </c>
       <c r="M12" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O12" t="n">
-        <v>352.5315567385214</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>352.093778774672</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35576,13 +35576,13 @@
         <v>423.1479911205235</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783452</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>0.7346729732425956</v>
       </c>
       <c r="O13" t="n">
-        <v>201.4130210481683</v>
+        <v>201.4309154175039</v>
       </c>
       <c r="P13" t="n">
         <v>351.5977150790518</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>1.361442175632192</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823918</v>
+        <v>1.688989405823975</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397251</v>
+        <v>1.879326147397194</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237146</v>
+        <v>1.909735609237089</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076418</v>
+        <v>228.7780928775003</v>
       </c>
       <c r="P14" t="n">
-        <v>228.3362258710561</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35725,25 +35725,25 @@
         <v>26.52410592632186</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794483</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24338485945885</v>
+        <v>352.243648029422</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313456</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N15" t="n">
-        <v>257.561765485483</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
-        <v>424.2958575201043</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.79365307401842</v>
+        <v>0.3394256349377613</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377154</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L16" t="n">
-        <v>423.1479911205234</v>
+        <v>423.1479911205235</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0.7525673425783452</v>
       </c>
       <c r="N16" t="n">
-        <v>149.074668762011</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>424.2958575201044</v>
+        <v>201.4130210481683</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625450088</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.2937040649638</v>
+        <v>0.402012282809892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>27.35584984329529</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J17" t="n">
-        <v>500.783792480316</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K17" t="n">
-        <v>748.4075614369989</v>
+        <v>757.3878780277663</v>
       </c>
       <c r="L17" t="n">
-        <v>113.6650810768133</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M17" t="n">
-        <v>126.4743036143973</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
-        <v>128.5207900716919</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>748.407561436999</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P17" t="n">
-        <v>103.5767041502913</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.0921330940469</v>
+        <v>180.6160294605379</v>
       </c>
       <c r="R17" t="n">
-        <v>216.1077791921562</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.59557941099166</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>364.246845495284</v>
+        <v>339.3582999833606</v>
       </c>
       <c r="K18" t="n">
-        <v>62.2307518438098</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L18" t="n">
-        <v>646.2225530101508</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M18" t="n">
-        <v>97.64702539633572</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N18" t="n">
-        <v>100.2314516007843</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O18" t="n">
-        <v>91.69219641120003</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P18" t="n">
-        <v>73.5910713468179</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.19368231149315</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2838348712228</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>110.2967877190417</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K19" t="n">
-        <v>315.0711359933193</v>
+        <v>319.2383682279778</v>
       </c>
       <c r="L19" t="n">
-        <v>470.4691000294484</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M19" t="n">
-        <v>514.7711601425408</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N19" t="n">
-        <v>496.1678558995718</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O19" t="n">
-        <v>469.5758299452548</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P19" t="n">
-        <v>390.0934979410022</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q19" t="n">
-        <v>196.9461887268271</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>507.5704664572298</v>
       </c>
       <c r="K20" t="n">
-        <v>757.3878780277663</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L20" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492257</v>
+        <v>140.5149294492256</v>
       </c>
       <c r="N20" t="n">
         <v>142.7886079115501</v>
       </c>
       <c r="O20" t="n">
-        <v>229.0304762605815</v>
+        <v>332.6060035785292</v>
       </c>
       <c r="P20" t="n">
         <v>757.3878780277664</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583669</v>
       </c>
       <c r="R20" t="n">
         <v>221.1306915673285</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>41.06860562793318</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J21" t="n">
-        <v>368.2889420225625</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L21" t="n">
         <v>92.96637310509811</v>
@@ -36217,10 +36217,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q21" t="n">
-        <v>545.5983139543202</v>
+        <v>571.925256540641</v>
       </c>
       <c r="R21" t="n">
         <v>144.9401608746653</v>
@@ -36284,10 +36284,10 @@
         <v>319.238368227978</v>
       </c>
       <c r="L22" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619685</v>
       </c>
       <c r="M22" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N22" t="n">
         <v>501.6566681222644</v>
@@ -36296,7 +36296,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P22" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q22" t="n">
         <v>199.9496610361725</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.4385844755576</v>
+        <v>30.43858447555758</v>
       </c>
       <c r="J23" t="n">
-        <v>507.57046645723</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940671</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660809</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M23" t="n">
-        <v>140.514929449226</v>
+        <v>140.5149294492259</v>
       </c>
       <c r="N23" t="n">
         <v>142.7886079115502</v>
       </c>
       <c r="O23" t="n">
-        <v>332.6060035785281</v>
+        <v>332.6060035785288</v>
       </c>
       <c r="P23" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="Q23" t="n">
         <v>638.4357623583674</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J24" t="n">
         <v>368.2889420225627</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459152</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509834</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M24" t="n">
-        <v>108.4873724731144</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N24" t="n">
-        <v>111.358710408226</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O24" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P24" t="n">
         <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>545.5983139543189</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R24" t="n">
-        <v>144.9401608746653</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>112.8326691814</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K25" t="n">
         <v>319.2383682279782</v>
@@ -36524,13 +36524,13 @@
         <v>475.8017225619689</v>
       </c>
       <c r="M25" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N25" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O25" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P25" t="n">
         <v>394.4315932187724</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>30.4385844755575</v>
+        <v>30.43858447555758</v>
       </c>
       <c r="J26" t="n">
-        <v>507.5704664572298</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940667</v>
+        <v>299.5681451299373</v>
       </c>
       <c r="L26" t="n">
-        <v>126.2836828660804</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492255</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
-        <v>142.7886079115499</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O26" t="n">
-        <v>332.6060035785297</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P26" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="Q26" t="n">
         <v>638.4357623583674</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41.06860562793315</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J27" t="n">
-        <v>368.2889420225625</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459129</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L27" t="n">
-        <v>92.966373105098</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M27" t="n">
-        <v>108.4873724731141</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N27" t="n">
-        <v>111.3587104082255</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O27" t="n">
-        <v>101.8714643335471</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q27" t="n">
-        <v>545.5983139543209</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R27" t="n">
-        <v>144.9401608746653</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K28" t="n">
-        <v>319.2383682279784</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L28" t="n">
-        <v>475.8017225619686</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142322</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N28" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O28" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P28" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q28" t="n">
         <v>199.949661036173</v>
@@ -36834,7 +36834,7 @@
         <v>507.5704664572299</v>
       </c>
       <c r="K29" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="L29" t="n">
         <v>126.2836828660809</v>
@@ -36846,10 +36846,10 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
-        <v>490.186731929874</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P29" t="n">
-        <v>115.0753383124757</v>
+        <v>470.4308367996912</v>
       </c>
       <c r="Q29" t="n">
         <v>638.4357623583674</v>
@@ -36992,13 +36992,13 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K31" t="n">
-        <v>319.2383682279775</v>
+        <v>319.2383682279778</v>
       </c>
       <c r="L31" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N31" t="n">
         <v>501.6566681222644</v>
@@ -37071,10 +37071,10 @@
         <v>507.5704664572299</v>
       </c>
       <c r="K32" t="n">
-        <v>757.3878780277664</v>
+        <v>299.5681451299371</v>
       </c>
       <c r="L32" t="n">
-        <v>310.7764896835417</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M32" t="n">
         <v>140.5149294492257</v>
@@ -37086,7 +37086,7 @@
         <v>134.8312334426587</v>
       </c>
       <c r="P32" t="n">
-        <v>115.0753383124757</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="Q32" t="n">
         <v>638.4357623583674</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J33" t="n">
         <v>368.2889420225627</v>
@@ -37165,13 +37165,13 @@
         <v>101.8714643335474</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461413</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q33" t="n">
-        <v>545.5983139543193</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R33" t="n">
-        <v>144.9401608746653</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K34" t="n">
-        <v>319.2383682279775</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L34" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M34" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N34" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O34" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P34" t="n">
         <v>394.4315932187724</v>
@@ -37308,22 +37308,22 @@
         <v>507.5704664572299</v>
       </c>
       <c r="K35" t="n">
-        <v>101.793374994067</v>
+        <v>299.5681451299373</v>
       </c>
       <c r="L35" t="n">
         <v>126.2836828660808</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492259</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
-        <v>142.7886079115502</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O35" t="n">
-        <v>332.6060035785285</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P35" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="Q35" t="n">
         <v>638.4357623583674</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691814002</v>
       </c>
       <c r="K37" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L37" t="n">
         <v>475.8017225619687</v>
@@ -37475,10 +37475,10 @@
         <v>520.3936629142327</v>
       </c>
       <c r="N37" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O37" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229139</v>
       </c>
       <c r="P37" t="n">
         <v>394.4315932187724</v>
@@ -37542,28 +37542,28 @@
         <v>30.43858447555758</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983811</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K38" t="n">
         <v>101.793374994067</v>
       </c>
       <c r="L38" t="n">
+        <v>126.2836828660808</v>
+      </c>
+      <c r="M38" t="n">
+        <v>140.5149294492259</v>
+      </c>
+      <c r="N38" t="n">
+        <v>142.7886079115502</v>
+      </c>
+      <c r="O38" t="n">
+        <v>332.6060035785288</v>
+      </c>
+      <c r="P38" t="n">
         <v>757.3878780277666</v>
       </c>
-      <c r="M38" t="n">
-        <v>726.5689491856288</v>
-      </c>
-      <c r="N38" t="n">
-        <v>757.3878780277666</v>
-      </c>
-      <c r="O38" t="n">
-        <v>134.8312334426587</v>
-      </c>
-      <c r="P38" t="n">
-        <v>115.0753383124757</v>
-      </c>
       <c r="Q38" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R38" t="n">
         <v>221.1306915673285</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41.06860562793319</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J39" t="n">
         <v>368.2889420225627</v>
@@ -37639,13 +37639,13 @@
         <v>101.8714643335474</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461413</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q39" t="n">
-        <v>545.5983139543193</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R39" t="n">
-        <v>144.9401608746653</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>112.8326691814002</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K40" t="n">
         <v>319.2383682279781</v>
@@ -37709,13 +37709,13 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M40" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142323</v>
       </c>
       <c r="N40" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O40" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P40" t="n">
         <v>394.4315932187724</v>
@@ -37779,25 +37779,25 @@
         <v>30.43858447555758</v>
       </c>
       <c r="J41" t="n">
-        <v>507.57046645723</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K41" t="n">
-        <v>299.5681451299374</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L41" t="n">
         <v>126.2836828660808</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492257</v>
+        <v>140.5149294492259</v>
       </c>
       <c r="N41" t="n">
-        <v>142.7886079115501</v>
+        <v>157.6579329097041</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426587</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="P41" t="n">
-        <v>757.3878780277669</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="Q41" t="n">
         <v>638.4357623583674</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J42" t="n">
         <v>368.2889420225627</v>
@@ -37876,13 +37876,13 @@
         <v>101.8714643335474</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461413</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q42" t="n">
-        <v>545.5983139543193</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R42" t="n">
-        <v>144.9401608746653</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K43" t="n">
-        <v>319.2383682279782</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L43" t="n">
-        <v>475.8017225619689</v>
+        <v>475.8017225619685</v>
       </c>
       <c r="M43" t="n">
         <v>520.3936629142326</v>
@@ -37955,7 +37955,7 @@
         <v>474.6456364229136</v>
       </c>
       <c r="P43" t="n">
-        <v>394.4315932187728</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q43" t="n">
         <v>199.9496610361725</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>30.43858447555758</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>67.91926700983808</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>739.2193445773285</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M44" t="n">
-        <v>748.4075614369991</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
-        <v>542.7134537948391</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>116.0095188354626</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>319.2383682279775</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>475.8017225619689</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N46" t="n">
-        <v>508.9762036458158</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485105</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
